--- a/doc-checker/doc_checker/media/rows_with_missing_data.xlsx
+++ b/doc-checker/doc_checker/media/rows_with_missing_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Error</t>
         </is>
       </c>
@@ -497,9 +502,12 @@
           <t>052-62-2057</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Missing required field(s)</t>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Tenant email</t>
         </is>
       </c>
     </row>
@@ -520,19 +528,14 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>National ID</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>096-86-0258</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Missing required field(s)</t>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tenant phone number, Tenant identification card, Tenant identification number</t>
         </is>
       </c>
     </row>
@@ -563,42 +566,28 @@
           <t>352-52-4643</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Missing required field(s)</t>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tenant email</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Rose</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Johnson</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>dbrock@humphrey.org</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>National ID</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>830-02-2508</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Missing required field(s)</t>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>93</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tenant first name, Tenant last name, Tenant email, Tenant phone number, Tenant identification card, Tenant identification number</t>
         </is>
       </c>
     </row>
@@ -606,7 +595,7 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Krause</t>
+          <t>Merritt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,42 +618,72 @@
           <t>515-86-5747</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Missing required field(s)</t>
+      <c r="G6" t="n">
+        <v>97</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tenant first name</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>kimberly49@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Driver License</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>98</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tenant first name, Tenant last name, Tenant phone number, Tenant identification number</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Andre</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Smith</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>205-271-4312</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Passport</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>843-09-1951</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Missing required field(s)</t>
+      <c r="G8" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tenant email</t>
         </is>
       </c>
     </row>

--- a/doc-checker/doc_checker/media/rows_with_missing_data.xlsx
+++ b/doc-checker/doc_checker/media/rows_with_missing_data.xlsx
@@ -436,75 +436,75 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tenant first name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Tenant last name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tenant email</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Tenant phone number</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Tenant identification card</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Tenant identification number</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Position</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>Missing Field(s)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Barbara</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Duran</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>390.588.6444x24784</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Passport</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>052-62-2057</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>3</v>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>Tenant email</t>
@@ -512,27 +512,27 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Patricia</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Vaughn</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>ryanbrandon@franklin.com</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>5</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>Tenant phone number, Tenant identification card, Tenant identification number</t>
@@ -540,35 +540,35 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>William</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Rogers</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>001-906-528-8495x0145</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>National ID</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>352-52-4643</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>9</v>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>Tenant email</t>
@@ -576,15 +576,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="n">
+        <v>93</v>
+      </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>93</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>Tenant first name, Tenant last name, Tenant email, Tenant phone number, Tenant identification card, Tenant identification number</t>
@@ -592,35 +592,35 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>97</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Merritt</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>aadams@yahoo.com</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>237.201.7423x77678</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Driver License</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>515-86-5747</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>97</v>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>Tenant first name</t>
@@ -628,23 +628,23 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="n">
+        <v>98</v>
+      </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>kimberly49@hotmail.com</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Driver License</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>98</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>Tenant first name, Tenant last name, Tenant phone number, Tenant identification number</t>
@@ -652,34 +652,34 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>100</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Andre</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Smith</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>205-271-4312</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Passport</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>843-09-1951</t>
         </is>
-      </c>
-      <c r="G8" t="n">
-        <v>100</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
